--- a/livros_amazon.xlsx
+++ b/livros_amazon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>83,18</t>
+          <t>82,18</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1300,179 +1300,179 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intelligent Automation: Learn how to harness Artificial Intelligence to boost business &amp; make our world more human</t>
+          <t>Introdução ao DevOps e Automação de CI/CD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ian Barkin</t>
+          <t>Cursa Online Courses</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>332,53</t>
+          <t>Kindle Unlimited: 0,00 Ou para comprar: R$ 9,70</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4,4 de 5 estrelas</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Introdução ao DevOps e Automação de CI/CD</t>
+          <t>Jornada RPA e Hiperautomação: Como acelerar a transformação digital somando tecnologia e processos inteligentes (Jornada Colaborativa)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cursa Online Courses</t>
+          <t>Ana Cláudia Rodrigues</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Kindle Unlimited: 0,00 Ou para comprar: R$ 9,70</t>
+          <t>47,00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4,7 de 5 estrelas</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Jornada RPA e Hiperautomação: Como acelerar a transformação digital somando tecnologia e processos inteligentes (Jornada Colaborativa)</t>
+          <t>Learn everything about factory automation: Practical lessons on PLC, HMI, VFD, Servo programming &amp; machine automation (Industrial automation Book 1) (English Edition)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ana Cláudia Rodrigues</t>
+          <t>Avinash Malekar</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>47,00</t>
+          <t>Kindle Unlimited: 0,00 Ou para comprar: R$ 24,99</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4,7 de 5 estrelas</t>
+          <t>3,7 de 5 estrelas</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>66</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Learn everything about factory automation: Practical lessons on PLC, HMI, VFD, Servo programming &amp; machine automation (Industrial automation Book 1) (English Edition)</t>
+          <t>Manual de Instalações Elétricas</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Avinash Malekar</t>
+          <t>Bráulio Wilker Silva</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Kindle Unlimited: 0,00 Ou para comprar: R$ 24,99</t>
+          <t>Kindle Unlimited: 0,00 Ou para comprar: R$ 24,90</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3,7 de 5 estrelas</t>
+          <t>4,1 de 5 estrelas</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>45</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Manual de Instalações Elétricas</t>
+          <t>Máquinas elétricas (Automação)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bráulio Wilker Silva</t>
+          <t>SENAI-SP Editora</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Kindle Unlimited: 0,00 Ou para comprar: R$ 24,90</t>
+          <t>27,90</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4,1 de 5 estrelas</t>
+          <t>3,4 de 5 estrelas</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Máquinas elétricas (Automação)</t>
+          <t>O LIVRO DE OURO DE LOW-CODE &amp; NO-CODE Edição 2024: Dos Fundamentos às Aplicações Avançadas. Um Guia Essencial para Estudantes e Profissionais</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SENAI-SP Editora</t>
+          <t>Diego Rodrigues</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>27,90</t>
+          <t>Kindle Unlimited: 0,00 Ou para comprar: R$ 12,90</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3,4 de 5 estrelas</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>O LIVRO DE OURO DO ChatGPT: Dos Fundamentos às Aplicações Avançadas e Geração de Riqueza com a IA mais Popular do Mundo!</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Diego Rodrigues</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kindle Unlimited: 0,00 Ou para comprar: R$ 12,90</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1489,17 +1489,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>O Livro de Ouro da Inteligência Artificial Edição 2024: Dos Fundamentos às Aplicações Avançadas. Um Guia Essencial para Estudantes e Profissionais.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Diego Rodrigues Rodrigues</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kindle Unlimited: 0,00 Ou para comprar: R$ 12,90</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1516,17 +1516,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>O PID fracionário: Uma aplicação prática e real em uma planta-piloto de vazão industrial</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Walter Ernest Müller Moreira</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>64,56</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1543,98 +1543,98 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Obsessão pelo cliente</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Colin Bryar</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>44,04</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4,6 de 5 estrelas</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>187</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Python Automação Suprema: Domine as Melhores Soluções para Impulsionar sua Produtividade e Transformar sua Vida (Programação Descomplicada: Domine as Linguagens do Futuro de um jeito rápido e fácil)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Raphael R</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Kindle Unlimited: 0,00 Ou para comprar: R$ 9,99</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2,6 de 5 estrelas</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>O LIVRO DE OURO DE LOW-CODE &amp; NO-CODE Edição 2024: Dos Fundamentos às Aplicações Avançadas. Um Guia Essencial para Estudantes e Profissionais</t>
+          <t>Redes industriais para automação industrial: As-i, Profibus e Profinet</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Diego Rodrigues</t>
+          <t>Alexandre Baratella Lugli e Max Mauro Dias Santos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Kindle Unlimited: 0,00 Ou para comprar: R$ 12,90</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3,9 de 5 estrelas</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>O LIVRO DE OURO DO ChatGPT: Dos Fundamentos às Aplicações Avançadas e Geração de Riqueza com a IA mais Popular do Mundo!</t>
+          <t>Segurança Intrínseca: Equipamentos e Instalações em Atmosferas Explosivas</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Diego Rodrigues</t>
+          <t>Diego Henrique de Oliveira</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Kindle Unlimited: 0,00 Ou para comprar: R$ 12,90</t>
+          <t>337,50</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1651,241 +1651,106 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>O Livro de Ouro da Inteligência Artificial Edição 2024: Dos Fundamentos às Aplicações Avançadas. Um Guia Essencial para Estudantes e Profissionais.</t>
+          <t>Segurança de Automação Industrial e SCADA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Diego Rodrigues Rodrigues</t>
+          <t>Marcelo Ayres Marcelo Ayres Branquinho</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kindle Unlimited: 0,00 Ou para comprar: R$ 12,90</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4,6 de 5 estrelas</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>16</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>O PID fracionário: Uma aplicação prática e real em uma planta-piloto de vazão industrial</t>
+          <t>Sistemas Hidráulicos Industriais</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Walter Ernest Müller Moreira</t>
+          <t>Ilo da Silva Moreira</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>64,56</t>
+          <t>98,00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4,2 de 5 estrelas</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Obsessão pelo cliente</t>
+          <t>Sistemas Realimentados: uma Abordagem Histórica</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Colin Bryar</t>
+          <t>Luis Antonio Aguirre</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>44,04</t>
+          <t>81,83</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4,6 de 5 estrelas</t>
+          <t>5,0 de 5 estrelas</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Redes industriais para automação industrial: As-i, Profibus e Profinet</t>
+          <t>Sistemas de Instrumentação: Desenho</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Alexandre Baratella Lugli e Max Mauro Dias Santos</t>
+          <t>SENAI-SP Editora</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>36,98</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3,9 de 5 estrelas</t>
+          <t>2,3 de 5 estrelas</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Segurança Intrínseca: Equipamentos e Instalações em Atmosferas Explosivas</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Diego Henrique de Oliveira</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>337,50</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Segurança de Automação Industrial e SCADA</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Marcelo Ayres Marcelo Ayres Branquinho</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>4,6 de 5 estrelas</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Sistemas Hidráulicos Industriais</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Ilo da Silva Moreira</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>98,00</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>4,2 de 5 estrelas</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Sistemas Realimentados: uma Abordagem Histórica</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Luis Antonio Aguirre</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>81,83</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>5,0 de 5 estrelas</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Sistemas de Instrumentação: Desenho</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>SENAI-SP Editora</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>36,99</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2,3 de 5 estrelas</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
         <is>
           <t>3</t>
         </is>
